--- a/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -212,6 +212,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -232,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -532,26 +532,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14">
         <v>43065</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -581,7 +581,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
@@ -591,7 +591,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
@@ -601,7 +601,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
@@ -611,7 +611,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
@@ -621,7 +621,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
@@ -631,7 +631,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
@@ -641,7 +641,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
@@ -651,7 +651,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -661,7 +661,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -671,7 +671,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
@@ -681,7 +681,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -691,7 +691,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
@@ -701,7 +701,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
@@ -711,7 +711,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
@@ -721,7 +721,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
@@ -731,7 +731,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
@@ -741,7 +741,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
@@ -751,7 +751,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
@@ -761,7 +761,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
@@ -771,7 +771,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
@@ -781,7 +781,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
@@ -791,7 +791,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="15"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
@@ -801,7 +801,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
@@ -811,7 +811,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
@@ -821,7 +821,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
@@ -831,7 +831,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
@@ -841,7 +841,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
@@ -851,7 +851,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
@@ -861,7 +861,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
@@ -871,17 +871,17 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
@@ -919,167 +919,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
-        <v>2</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
-        <v>3</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
-        <v>5</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
-        <v>6</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
-        <v>7</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
-        <v>8</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
-        <v>9</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
-        <v>10</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A37:F37"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>

--- a/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
@@ -91,7 +91,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>录入计票人：recorder</t>
+    <t>录入计票人：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -137,6 +137,12 @@
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +529,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C39:C40"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -907,8 +916,8 @@
       <c r="A36" s="5">
         <v>1</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="5" t="s">
         <v>7</v>
       </c>

--- a/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>录入计票人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,6 +225,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -241,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +533,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -541,26 +545,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15">
         <v>43065</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -883,14 +887,14 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
@@ -916,8 +920,12 @@
       <c r="A36" s="5">
         <v>1</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D36" s="5" t="s">
         <v>7</v>
       </c>
@@ -929,14 +937,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CE3A3-B8DF-4FFC-B34B-A2B42B4316E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="2" r:id="rId1"/>
@@ -71,8 +72,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>领回选票vote张，其中有效票yx张，无效票wx张。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入计票人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中共北京师范大学第十三届委员会委员计票结果报告单
+      <t xml:space="preserve">title
 </t>
     </r>
     <r>
@@ -86,23 +99,11 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>领回选票vote张，其中有效票yx张，无效票wx张。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入计票人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -528,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -546,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -556,7 +557,7 @@
     </row>
     <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -921,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>7</v>
@@ -938,7 +939,7 @@
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>

--- a/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_dw_jp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39CE3A3-B8DF-4FFC-B34B-A2B42B4316E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209E321-AC24-403E-88CC-E5EE39DEA4DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="党委委员" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -97,6 +97,10 @@
       </rPr>
       <t>（name）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年  月  日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +538,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -562,8 +566,8 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="15">
-        <v>43065</v>
+      <c r="E2" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="16"/>
     </row>
